--- a/04DataViz/Assignment01/RenewableAustralia.xlsx
+++ b/04DataViz/Assignment01/RenewableAustralia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffdb90a35c803d8f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIML\04DataViz\Assignment01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{003AB94E-A779-4A47-B2D3-865F7C1C18B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E66781FA-C38F-4224-BD6C-9ED5319950F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23875FA-5EEB-4D18-BD43-26FC74E1CC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{1A811D0F-71EC-4135-943F-244BEDAA203B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1A811D0F-71EC-4135-943F-244BEDAA203B}"/>
   </bookViews>
   <sheets>
     <sheet name="Renewable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>NSW</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>NT</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>2008-09</t>
@@ -210,10 +207,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65B4AB2-CAA6-47EB-914B-4ECC264983DA}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -548,52 +541,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -944,71 +937,6 @@
       </c>
       <c r="P8" s="3">
         <v>319.19400000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>18644.497000000003</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:P9" si="0">SUM(C2:C8)</f>
-        <v>21803.109</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>26524.291000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>26655.974999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>33199.4</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>36588.684000000001</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>34035.652999999998</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>38146.048999999992</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>40454.574999999997</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>44642.839</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>52023.635000000009</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>59930.341999999997</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>70798.191000000006</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="0"/>
-        <v>83995.566000000006</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="0"/>
-        <v>93112.224000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD384D-1B2B-44DD-A287-0AFD42AA5035}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1043,52 +971,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1439,71 +1367,6 @@
       </c>
       <c r="P8" s="3">
         <v>4687.4459999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>225300.2</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:P9" si="0">SUM(C2:C8)</f>
-        <v>227487.40000000002</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>224337.4</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>222996</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>214563.9</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>212447.89500000002</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>218355.16200000004</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>219282.53400000001</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>217562.39199999999</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>216413.26200000005</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>212003.10399999999</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>205247.85</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>194756.258</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="0"/>
-        <v>187536.01499999998</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="0"/>
-        <v>181362.61799999999</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F241D3D8-A07A-4FA6-85CC-E9FD92EBD299}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1523,7 +1386,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
